--- a/medicine/Mort/Cénotaphe/Cénotaphe.xlsx
+++ b/medicine/Mort/Cénotaphe/Cénotaphe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9notaphe</t>
+          <t>Cénotaphe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un cénotaphe est un monument funéraire élevé à la mémoire d'une personne ou d'un groupe de personnes et dont la forme ou l'ornementation rappelle un tombeau, mais qui ne contient pas de corps (contrairement au mausolée)[1]. Le monument aux morts est ainsi le plus souvent un cénotaphe. Il peut s'agir également d'une tombe réelle, mais où le corps du défunt ne repose plus pour telle ou telle raison (voir par exemple les cas de Lully, de Rossini et d'Alphonse Allais ci-dessous).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un cénotaphe est un monument funéraire élevé à la mémoire d'une personne ou d'un groupe de personnes et dont la forme ou l'ornementation rappelle un tombeau, mais qui ne contient pas de corps (contrairement au mausolée). Le monument aux morts est ainsi le plus souvent un cénotaphe. Il peut s'agir également d'une tombe réelle, mais où le corps du défunt ne repose plus pour telle ou telle raison (voir par exemple les cas de Lully, de Rossini et d'Alphonse Allais ci-dessous).
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A9notaphe</t>
+          <t>Cénotaphe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot « cénotaphe » vient du grec ancien : κενοτάϕιον / kenotáphion, lui-même composé de κενός / kenós qui signifie « vide », et de τάϕος / táphos, « tombeau ».
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%A9notaphe</t>
+          <t>Cénotaphe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Cénotaphes célèbres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La pyramide d'Ahmôsis à Abydos.
 Le cénotaphe de Saint Louis au musée national de Carthage.
@@ -558,13 +574,13 @@
 Le Monument à l'Indien, dans le parc des Cascine à Florence.
 Le cénotaphe de Francisco de Goya au cimetière de la Chartreuse à Bordeaux.
 Le cénotaphe de Charles Baudelaire au cimetière du Montparnasse à Paris. La tombe réelle du poète est située dans le même cimetière.
-La tombe d'Alphonse Allais (1854-1905) au cimetière ancien de Saint-Ouen fut pulvérisée, avec d'autres, par une bombe de la RAF lors du bombardement de la gare de triage de la Chapelle le 21 avril 1944 ; la stèle visible aujourd'hui, qui se réduit à une plaque relatant les faits, ne constitue donc qu'un cénotaphe[2].
+La tombe d'Alphonse Allais (1854-1905) au cimetière ancien de Saint-Ouen fut pulvérisée, avec d'autres, par une bombe de la RAF lors du bombardement de la gare de triage de la Chapelle le 21 avril 1944 ; la stèle visible aujourd'hui, qui se réduit à une plaque relatant les faits, ne constitue donc qu'un cénotaphe.
 Le cénotaphe temporaire, érigé à Paris, sur les Champs-Élysées, à l'occasion des fêtes de la Victoire, en juillet 1919.
 Le cénotaphe de Whitehall à Westminster à Londres.
 Le cénotaphe de Hong Kong, réplique presque exacte de celui de Londres.
 Le Monument aux braves à Sherbrooke.
 Le Monument commémoratif de guerre du Canada.
-Le Panthéon de Paris contient quelques cénotaphes dont celui de Jean Moulin. Plus récemment, un cercueil au nom de Joséphine Baker, mais ne contenant pas de corps, est installé au Panthéon (caveau XIII) le 30 novembre 2021 ; la dépouille de l'artiste restant au cimetière de Monaco selon les volontés de ses héritiers[3].
+Le Panthéon de Paris contient quelques cénotaphes dont celui de Jean Moulin. Plus récemment, un cercueil au nom de Joséphine Baker, mais ne contenant pas de corps, est installé au Panthéon (caveau XIII) le 30 novembre 2021 ; la dépouille de l'artiste restant au cimetière de Monaco selon les volontés de ses héritiers.
 Le cénotaphe de Lemmy Kilmister dans l'enceinte du Hellfest, réalisé par un collectif d'artistes et le sculpteur Jimmix, en 2016.</t>
         </is>
       </c>
